--- a/biology/Botanique/Lindelofia_anchusoides/Lindelofia_anchusoides.xlsx
+++ b/biology/Botanique/Lindelofia_anchusoides/Lindelofia_anchusoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindelofia anchusoides est une plante herbacée de la famille des Boraginacées originaire d'Asie himalayenne.
 Nom russe : Линделофия длинностолбиковая
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes vivaces herbacées érigées.
 Les feuilles sont entières et alternes. Les feuilles basales sont longuement pétiolées.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindelofia anchusoides est originaire de l'Himalaya : Afghanistan, Pakistan, Cachemire, Chine.
 Un début d'utilisation ornementale commence à la répandre dans les pays tempérés froids.
@@ -578,15 +594,17 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lindelofia anchusoides, comme le genre, appartient à la sous-famille des Boraginoideae.
-En 1842, John Lindley décrit une première fois cette espèce à partir d'un échantillon envoyé du Cachemire dans le genre Cynoglossum : Cynoglossum anchusoides Lindl.[1]. Il lui attribue comme épithète spécifique anchusoides en raison de sa ressemblance avec les espèces du genre Anchusa.
-Johann Georg Christian Lehmann utilise cette espèce comme l'une des deux espèces types du genre qu'il décrit en 1850 : Lindelofia anchusoides (Lindl.) Lehm.[2].
-En 1876, George Bentham et Joseph Dalton Hooker la place dans le genre Paracaryum : Paracaryum anchusoides (Lindl.) Benth. &amp; Hook.f., déplacement cependant invalide[3]. Le genre Paracaryum avait été décrit par Pierre Edmond Boissier en 1848.
+En 1842, John Lindley décrit une première fois cette espèce à partir d'un échantillon envoyé du Cachemire dans le genre Cynoglossum : Cynoglossum anchusoides Lindl.. Il lui attribue comme épithète spécifique anchusoides en raison de sa ressemblance avec les espèces du genre Anchusa.
+Johann Georg Christian Lehmann utilise cette espèce comme l'une des deux espèces types du genre qu'il décrit en 1850 : Lindelofia anchusoides (Lindl.) Lehm..
+En 1876, George Bentham et Joseph Dalton Hooker la place dans le genre Paracaryum : Paracaryum anchusoides (Lindl.) Benth. &amp; Hook.f., déplacement cependant invalide. Le genre Paracaryum avait été décrit par Pierre Edmond Boissier en 1848.
 August Brand procède à deux révision du genre en 1915 et la renomme Adelocaryum anchsoides (Lindl.) Brand) en en faisant l'espèce type du nouveau genre Adelocaryum.
-Mikhail Grigoríevič Popov, dans la une revue complète du genre en 1953, la replace dans le genre Lindelofia[4].
-Le nombre de base des chromosomes est de 12 : 2 × n = 24 chromosomes[5].
+Mikhail Grigoríevič Popov, dans la une revue complète du genre en 1953, la replace dans le genre Lindelofia.
+Le nombre de base des chromosomes est de 12 : 2 × n = 24 chromosomes.
 Cette espèce compte de nombreux synonymes :
 Adelocaryum anchusoides (Lindl.) Brand
 Cynoglossum anchusoides  Lindl.
